--- a/static/data/self_reported_results.xlsx
+++ b/static/data/self_reported_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13260"/>
+    <workbookView windowWidth="27660" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Screenshot" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="288">
   <si>
     <t>Model</t>
   </si>
@@ -639,6 +639,24 @@
   </si>
   <si>
     <t>Hong et al., '23</t>
+  </si>
+  <si>
+    <t>AskUI VisionAgent</t>
+  </si>
+  <si>
+    <t>AskUI</t>
+  </si>
+  <si>
+    <t>https://www.askui.com/</t>
+  </si>
+  <si>
+    <t>AskUI, '25</t>
+  </si>
+  <si>
+    <t>General Model, Max Steps 100, Runs: 1</t>
+  </si>
+  <si>
+    <t>Nov 5, 2024</t>
   </si>
   <si>
     <t>learn-by-interact w/ Claude-3.5-sonnet</t>
@@ -883,10 +901,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1344,19 +1362,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,8 +1512,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1508,7 +1526,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1559,13 +1577,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1826,10 +1837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1884,7 +1895,7 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6">
@@ -3302,7 +3313,7 @@
       <c r="B55" t="s">
         <v>141</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>201</v>
       </c>
       <c r="D55" t="s">
@@ -3319,6 +3330,32 @@
       </c>
       <c r="H55" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>66.2</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3356,6 +3393,8 @@
     <hyperlink ref="C7" r:id="rId25" display="https://arxiv.org/abs/2505.10887"/>
     <hyperlink ref="F2" r:id="rId26" display="https://drive.google.com/drive/folders/1GvNXwDt5_U-ned49urVlOFj1FBi86ddT?usp=sharing"/>
     <hyperlink ref="C2" r:id="rId27" display="https://arxiv.org/abs/2507.05791"/>
+    <hyperlink ref="C55" r:id="rId28" display="https://arxiv.org/abs/2312.08914"/>
+    <hyperlink ref="C56" r:id="rId29" display="https://www.askui.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3404,19 +3443,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -3425,21 +3464,21 @@
         <v>22.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -3451,18 +3490,18 @@
         <v>16.6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
         <v>152</v>
@@ -3471,7 +3510,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G4">
         <v>12.24</v>
@@ -3497,7 +3536,7 @@
         <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G5">
         <v>11.36</v>
@@ -3523,7 +3562,7 @@
         <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G6">
         <v>10.82</v>
@@ -3534,19 +3573,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -3555,18 +3594,18 @@
         <v>10.3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
         <v>193</v>
@@ -3575,13 +3614,13 @@
         <v>128</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G8">
         <v>6.87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3601,7 +3640,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G9">
         <v>6.21</v>
@@ -3627,7 +3666,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G10">
         <v>4.81</v>
@@ -3641,7 +3680,7 @@
         <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
         <v>192</v>
@@ -3653,7 +3692,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G11">
         <v>4.32</v>
@@ -3664,16 +3703,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -3705,7 +3744,7 @@
         <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G13">
         <v>2.7</v>
@@ -3716,13 +3755,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
         <v>152</v>
@@ -3731,7 +3770,7 @@
         <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G14">
         <v>2.69</v>
@@ -3742,7 +3781,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>156</v>
@@ -3757,7 +3796,7 @@
         <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G15">
         <v>2.37</v>
@@ -3768,28 +3807,28 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G16">
         <v>1.61</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3855,16 +3894,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -3876,12 +3915,12 @@
         <v>23.85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -3890,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
         <v>128</v>
@@ -3902,12 +3941,12 @@
         <v>20.58</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -3916,7 +3955,7 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
         <v>128</v>
@@ -3928,47 +3967,47 @@
         <v>20.48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G5">
         <v>19.39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -3980,21 +4019,21 @@
         <v>17.34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -4006,7 +4045,7 @@
         <v>13.55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4026,7 +4065,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G8">
         <v>12.17</v>
@@ -4052,7 +4091,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G9">
         <v>11.21</v>
@@ -4063,13 +4102,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
         <v>116</v>
@@ -4084,7 +4123,7 @@
         <v>11.11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4104,7 +4143,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G11">
         <v>9.04</v>
@@ -4115,16 +4154,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -4136,7 +4175,7 @@
         <v>8.94</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4156,7 +4195,7 @@
         <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G13">
         <v>6.21</v>
@@ -4182,7 +4221,7 @@
         <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G14">
         <v>5.1</v>
@@ -4234,7 +4273,7 @@
         <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G16">
         <v>3.5</v>
@@ -4260,7 +4299,7 @@
         <v>128</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G17">
         <v>3.48</v>
@@ -4286,7 +4325,7 @@
         <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G18">
         <v>2.42</v>
@@ -4380,13 +4419,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
@@ -4401,7 +4440,7 @@
         <v>24.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4421,7 +4460,7 @@
         <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G3">
         <v>11.77</v>
@@ -4447,7 +4486,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G4">
         <v>8.4</v>
@@ -4479,7 +4518,7 @@
         <v>7.79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4499,7 +4538,7 @@
         <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G6">
         <v>6.72</v>
@@ -4551,13 +4590,13 @@
         <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G8">
         <v>4.59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4577,7 +4616,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G9">
         <v>3.5</v>
@@ -4603,7 +4642,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G10">
         <v>2.42</v>
@@ -4629,7 +4668,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G11">
         <v>1.06</v>

--- a/static/data/self_reported_results.xlsx
+++ b/static/data/self_reported_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13200"/>
+    <workbookView windowWidth="27660" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Screenshot" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,27 @@
     <t>Date</t>
   </si>
   <si>
+    <t>AskUI VisionAgent</t>
+  </si>
+  <si>
+    <t>AskUI</t>
+  </si>
+  <si>
+    <t>https://www.askui.com/</t>
+  </si>
+  <si>
+    <t>AskUI, '25</t>
+  </si>
+  <si>
+    <t>General Model, Max Steps 100, Runs: 1</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Nov 5, 2024</t>
+  </si>
+  <si>
     <t>GTA1  w/ o3 (100 steps)</t>
   </si>
   <si>
@@ -68,9 +89,6 @@
     <t>Yang et al., '25</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1GvNXwDt5_U-ned49urVlOFj1FBi86ddT?usp=sharing</t>
   </si>
   <si>
@@ -639,24 +657,6 @@
   </si>
   <si>
     <t>Hong et al., '23</t>
-  </si>
-  <si>
-    <t>AskUI VisionAgent</t>
-  </si>
-  <si>
-    <t>AskUI</t>
-  </si>
-  <si>
-    <t>https://www.askui.com/</t>
-  </si>
-  <si>
-    <t>AskUI, '25</t>
-  </si>
-  <si>
-    <t>General Model, Max Steps 100, Runs: 1</t>
-  </si>
-  <si>
-    <t>Nov 5, 2024</t>
   </si>
   <si>
     <t>learn-by-interact w/ Claude-3.5-sonnet</t>
@@ -1512,8 +1512,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1839,8 +1839,8 @@
   <sheetPr/>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1895,11 +1895,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6">
-        <v>45.2</v>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>66.2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1912,207 +1912,206 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>42.9</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45.2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>42.9</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
         <v>42.5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>41.4</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
         <v>34</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>38.1</v>
+        <v>41.4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>38.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G7">
-        <v>35.27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>34.5</v>
+        <v>35.27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G9">
-        <v>29.9</v>
+        <v>34.5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
         <v>53</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>29.9</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>56</v>
@@ -2126,20 +2125,20 @@
       <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>27.04</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>62</v>
@@ -2151,103 +2150,103 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>27</v>
+        <v>27.04</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>26.92</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>26.92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>25.02</v>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>62</v>
@@ -2256,624 +2255,624 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>24.6</v>
+        <v>25.02</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G17">
-        <v>22.74</v>
+        <v>24.6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>22.7</v>
+        <v>22.74</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>22.7</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>22</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
+      <c r="C20" t="s">
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>21.8</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>20.2</v>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+        <v>93</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>19.7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>18.8</v>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>17.04</v>
+        <v>17.7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>101</v>
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>17.04</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>15.15</v>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>14.9</v>
+        <v>15.15</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <v>14.9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33">
-        <v>14.79</v>
+        <v>14.9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34">
-        <v>14.63</v>
+        <v>14.79</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>11.65</v>
+        <v>14.63</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36">
+        <v>11.65</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
         <v>10.26</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="H37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>9.21</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>9.21</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>8.8</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -2889,133 +2888,133 @@
         <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39">
-        <v>8.7</v>
+        <v>8.8</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40">
-        <v>8.22</v>
+        <v>8.7</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" t="s">
         <v>142</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41">
+        <v>8.22</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
         <v>8.12</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42">
-        <v>7.81</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="G43">
-        <v>7.69</v>
+        <v>7.81</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>157</v>
@@ -3024,377 +3023,378 @@
         <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G44">
-        <v>5.8</v>
+        <v>7.69</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G45">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>167</v>
+        <v>134</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="G46">
         <v>5.4</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="G47">
-        <v>5.26</v>
+        <v>5.4</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
       </c>
       <c r="G48">
-        <v>5.03</v>
+        <v>5.26</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G49">
-        <v>3.77</v>
+        <v>5.03</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G50">
-        <v>3.33</v>
+        <v>3.77</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51">
+        <v>3.33</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51">
-        <v>2.42</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
       </c>
       <c r="G52">
         <v>2.42</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G53">
         <v>2.42</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G54">
-        <v>1.88</v>
+        <v>2.42</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="C55" t="s">
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="G55">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>205</v>
+        <v>147</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56">
-        <v>66.2</v>
+        <v>1.11</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1" display="https://arxiv.org/abs/2504.07491"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://seed-tars.com/1.5"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://github.com/simular-ai/Agent-S"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://seed-tars.com/1.5" tooltip="https://seed-tars.com/1.5"/>
-    <hyperlink ref="F4" r:id="rId4" display="https://drive.google.com/file/d/1e7SCYqpxFX2FCGEOhf6jcVvwkx3leIKf/view?usp=drive_link"/>
-    <hyperlink ref="F16" r:id="rId5" display="https://drive.google.com/file/d/1vUWlXVenkOc5F1s-z8DdpfU4Y5fUMssr/view?usp=drive_link" tooltip="https://drive.google.com/file/d/1vUWlXVenkOc5F1s-z8DdpfU4Y5fUMssr/view?usp=drive_link"/>
-    <hyperlink ref="F42" r:id="rId6" display="https://drive.google.com/drive/folders/14_xlL-e0-0INq2O1THbhFKi6Z0bgfwR4?usp=drive_link"/>
-    <hyperlink ref="F46" r:id="rId7" display="https://drive.google.com/drive/folders/1j-YVzEGAGWxXgse75MCnhUCTVuejM76A?usp=drive_link"/>
-    <hyperlink ref="F8" r:id="rId8" display="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link" tooltip="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link"/>
-    <hyperlink ref="F45" r:id="rId9" display="https://drive.google.com/drive/folders/1NLsHdLUNZOHsEC5xNZ4e4PHkDC5IELjj?usp=drive_link"/>
-    <hyperlink ref="F53" r:id="rId10" display="https://drive.google.com/drive/folders/1iBOXZpknCi1Fqzg0fQMG6CZc9NWrwdkf?usp=drive_link"/>
-    <hyperlink ref="F44" r:id="rId11" display="https://drive.google.com/file/d/17jgZEjslxIZPC5kuzOq6oTK5EuDiJ-_l/view?usp=drive_link"/>
-    <hyperlink ref="F43" r:id="rId12" display="https://drive.google.com/file/d/1miMp-AR_hOfLUWszGb_aZG2f_Nd66Ntt/view?usp=drive_link"/>
-    <hyperlink ref="F49" r:id="rId13" display="https://drive.google.com/file/d/1Skq_uMcAR08LMDnIpOswjxm5ntbVXm5M/view?usp=drive_link"/>
-    <hyperlink ref="F48" r:id="rId14" display="https://drive.google.com/file/d/1mN12zjCiawfU4k1ifPsLW-hcuzPV7Voz/view?usp=drive_link"/>
-    <hyperlink ref="F50" r:id="rId15" display="https://drive.google.com/file/d/1KSYs7ZOhEkjBQX5UnMpLkbxZZ6BLhbDm/view?usp=drive_link"/>
-    <hyperlink ref="F52" r:id="rId16" display="https://drive.google.com/file/d/1geppLqwV80p66bXdffVBbLayjCkIQ9mk/view?usp=drive_link"/>
-    <hyperlink ref="F54" r:id="rId17" display="https://drive.google.com/file/d/1T58G_EIr4pWZYJ8plXEWspFHr35g-Nsy/view?usp=drive_link"/>
-    <hyperlink ref="F5" r:id="rId8" display="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link"/>
-    <hyperlink ref="F12" r:id="rId8" display="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link"/>
-    <hyperlink ref="F7" r:id="rId18" display="https://drive.google.com/file/d/1M-PAz9S7cvYR8T6-VIEZKMbw7yVTN5je/view?usp=drive_link"/>
-    <hyperlink ref="C11" r:id="rId19" display="https://osworld-grounding.github.io/"/>
-    <hyperlink ref="C15" r:id="rId19" display="https://osworld-grounding.github.io/"/>
-    <hyperlink ref="C17" r:id="rId19" display="https://osworld-grounding.github.io/"/>
-    <hyperlink ref="C20" r:id="rId19" display="https://osworld-grounding.github.io/"/>
-    <hyperlink ref="F13" r:id="rId20" display="https://drive.google.com/file/d/1t-w6OAQHfmRplHbi93aWXZlOBwOQkwY2/view?usp=drive_link"/>
-    <hyperlink ref="C3" r:id="rId21" display="https://help.openai.com/en/articles/10561834-operator-release-notes"/>
-    <hyperlink ref="C31" r:id="rId22" display="https://arxiv.org/abs/2505.13909"/>
-    <hyperlink ref="C9" r:id="rId23" display="https://arxiv.org/abs/2505.16282"/>
-    <hyperlink ref="C22" r:id="rId24" display="https://arxiv.org/abs/2505.23762"/>
-    <hyperlink ref="C7" r:id="rId25" display="https://arxiv.org/abs/2505.10887"/>
-    <hyperlink ref="F2" r:id="rId26" display="https://drive.google.com/drive/folders/1GvNXwDt5_U-ned49urVlOFj1FBi86ddT?usp=sharing"/>
-    <hyperlink ref="C2" r:id="rId27" display="https://arxiv.org/abs/2507.05791"/>
-    <hyperlink ref="C55" r:id="rId28" display="https://arxiv.org/abs/2312.08914"/>
-    <hyperlink ref="C56" r:id="rId29" display="https://www.askui.com/"/>
+    <hyperlink ref="C41" r:id="rId1" display="https://arxiv.org/abs/2504.07491"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://seed-tars.com/1.5"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://github.com/simular-ai/Agent-S"/>
+    <hyperlink ref="C14" r:id="rId2" display="https://seed-tars.com/1.5" tooltip="https://seed-tars.com/1.5"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://drive.google.com/file/d/1e7SCYqpxFX2FCGEOhf6jcVvwkx3leIKf/view?usp=drive_link"/>
+    <hyperlink ref="F17" r:id="rId5" display="https://drive.google.com/file/d/1vUWlXVenkOc5F1s-z8DdpfU4Y5fUMssr/view?usp=drive_link" tooltip="https://drive.google.com/file/d/1vUWlXVenkOc5F1s-z8DdpfU4Y5fUMssr/view?usp=drive_link"/>
+    <hyperlink ref="F43" r:id="rId6" display="https://drive.google.com/drive/folders/14_xlL-e0-0INq2O1THbhFKi6Z0bgfwR4?usp=drive_link"/>
+    <hyperlink ref="F47" r:id="rId7" display="https://drive.google.com/drive/folders/1j-YVzEGAGWxXgse75MCnhUCTVuejM76A?usp=drive_link"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link" tooltip="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link"/>
+    <hyperlink ref="F46" r:id="rId9" display="https://drive.google.com/drive/folders/1NLsHdLUNZOHsEC5xNZ4e4PHkDC5IELjj?usp=drive_link"/>
+    <hyperlink ref="F54" r:id="rId10" display="https://drive.google.com/drive/folders/1iBOXZpknCi1Fqzg0fQMG6CZc9NWrwdkf?usp=drive_link"/>
+    <hyperlink ref="F45" r:id="rId11" display="https://drive.google.com/file/d/17jgZEjslxIZPC5kuzOq6oTK5EuDiJ-_l/view?usp=drive_link"/>
+    <hyperlink ref="F44" r:id="rId12" display="https://drive.google.com/file/d/1miMp-AR_hOfLUWszGb_aZG2f_Nd66Ntt/view?usp=drive_link"/>
+    <hyperlink ref="F50" r:id="rId13" display="https://drive.google.com/file/d/1Skq_uMcAR08LMDnIpOswjxm5ntbVXm5M/view?usp=drive_link"/>
+    <hyperlink ref="F49" r:id="rId14" display="https://drive.google.com/file/d/1mN12zjCiawfU4k1ifPsLW-hcuzPV7Voz/view?usp=drive_link"/>
+    <hyperlink ref="F51" r:id="rId15" display="https://drive.google.com/file/d/1KSYs7ZOhEkjBQX5UnMpLkbxZZ6BLhbDm/view?usp=drive_link"/>
+    <hyperlink ref="F53" r:id="rId16" display="https://drive.google.com/file/d/1geppLqwV80p66bXdffVBbLayjCkIQ9mk/view?usp=drive_link"/>
+    <hyperlink ref="F55" r:id="rId17" display="https://drive.google.com/file/d/1T58G_EIr4pWZYJ8plXEWspFHr35g-Nsy/view?usp=drive_link"/>
+    <hyperlink ref="F6" r:id="rId8" display="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link"/>
+    <hyperlink ref="F13" r:id="rId8" display="https://drive.google.com/drive/folders/18PTnMwgyhxIWTVNLMwf0sbzhvh9AlVqE?usp=drive_link"/>
+    <hyperlink ref="F8" r:id="rId18" display="https://drive.google.com/file/d/1M-PAz9S7cvYR8T6-VIEZKMbw7yVTN5je/view?usp=drive_link"/>
+    <hyperlink ref="C12" r:id="rId19" display="https://osworld-grounding.github.io/"/>
+    <hyperlink ref="C16" r:id="rId19" display="https://osworld-grounding.github.io/"/>
+    <hyperlink ref="C18" r:id="rId19" display="https://osworld-grounding.github.io/"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://osworld-grounding.github.io/"/>
+    <hyperlink ref="F14" r:id="rId20" display="https://drive.google.com/file/d/1t-w6OAQHfmRplHbi93aWXZlOBwOQkwY2/view?usp=drive_link"/>
+    <hyperlink ref="C4" r:id="rId21" display="https://help.openai.com/en/articles/10561834-operator-release-notes"/>
+    <hyperlink ref="C32" r:id="rId22" display="https://arxiv.org/abs/2505.13909"/>
+    <hyperlink ref="C10" r:id="rId23" display="https://arxiv.org/abs/2505.16282"/>
+    <hyperlink ref="C23" r:id="rId24" display="https://arxiv.org/abs/2505.23762"/>
+    <hyperlink ref="C8" r:id="rId25" display="https://arxiv.org/abs/2505.10887"/>
+    <hyperlink ref="F3" r:id="rId26" display="https://drive.google.com/drive/folders/1GvNXwDt5_U-ned49urVlOFj1FBi86ddT?usp=sharing"/>
+    <hyperlink ref="C3" r:id="rId27" display="https://arxiv.org/abs/2507.05791"/>
+    <hyperlink ref="C56" r:id="rId28" display="https://arxiv.org/abs/2312.08914"/>
+    <hyperlink ref="C2" r:id="rId29" display="https://www.askui.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3458,7 +3458,7 @@
         <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>22.5</v>
@@ -3481,10 +3481,10 @@
         <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>16.6</v>
@@ -3498,16 +3498,16 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>222</v>
@@ -3516,24 +3516,24 @@
         <v>12.24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>223</v>
@@ -3542,24 +3542,24 @@
         <v>11.36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>224</v>
@@ -3568,7 +3568,7 @@
         <v>10.82</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>10.3</v>
@@ -3602,16 +3602,16 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>229</v>
@@ -3625,19 +3625,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>231</v>
@@ -3646,24 +3646,24 @@
         <v>6.21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>232</v>
@@ -3672,24 +3672,24 @@
         <v>4.81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>229</v>
@@ -3698,7 +3698,7 @@
         <v>4.32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3715,33 +3715,33 @@
         <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>2.98</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>238</v>
@@ -3750,7 +3750,7 @@
         <v>2.7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3758,16 +3758,16 @@
         <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>241</v>
@@ -3776,7 +3776,7 @@
         <v>2.69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3784,16 +3784,16 @@
         <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>243</v>
@@ -3802,7 +3802,7 @@
         <v>2.37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3819,7 +3819,7 @@
         <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>248</v>
@@ -3897,7 +3897,7 @@
         <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>251</v>
@@ -3906,10 +3906,10 @@
         <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>23.85</v>
@@ -3923,19 +3923,19 @@
         <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>20.58</v>
@@ -3949,19 +3949,19 @@
         <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>20.48</v>
@@ -3984,7 +3984,7 @@
         <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>258</v>
@@ -4001,7 +4001,7 @@
         <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>251</v>
@@ -4010,10 +4010,10 @@
         <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>17.34</v>
@@ -4027,7 +4027,7 @@
         <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>251</v>
@@ -4036,10 +4036,10 @@
         <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>13.55</v>
@@ -4050,19 +4050,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>262</v>
@@ -4071,24 +4071,24 @@
         <v>12.17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>263</v>
@@ -4097,7 +4097,7 @@
         <v>11.21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4105,19 +4105,19 @@
         <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>11.11</v>
@@ -4128,19 +4128,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>267</v>
@@ -4149,7 +4149,7 @@
         <v>9.04</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4166,10 +4166,10 @@
         <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>8.94</v>
@@ -4180,19 +4180,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>272</v>
@@ -4201,24 +4201,24 @@
         <v>6.21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>273</v>
@@ -4227,50 +4227,50 @@
         <v>5.1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>4.41</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>274</v>
@@ -4279,24 +4279,24 @@
         <v>3.5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>275</v>
@@ -4305,24 +4305,24 @@
         <v>3.48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>276</v>
@@ -4331,33 +4331,33 @@
         <v>2.42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <v>1.32</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4428,13 +4428,13 @@
         <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>24.5</v>
@@ -4445,19 +4445,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>280</v>
@@ -4466,24 +4466,24 @@
         <v>11.77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>281</v>
@@ -4492,27 +4492,27 @@
         <v>8.4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>7.79</v>
@@ -4523,19 +4523,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>283</v>
@@ -4544,50 +4544,50 @@
         <v>6.72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>5.4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>284</v>
@@ -4601,19 +4601,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>285</v>
@@ -4622,24 +4622,24 @@
         <v>3.5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>286</v>
@@ -4648,24 +4648,24 @@
         <v>2.42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>287</v>
@@ -4674,33 +4674,33 @@
         <v>1.06</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>0.99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/self_reported_results.xlsx
+++ b/static/data/self_reported_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13180"/>
+    <workbookView windowWidth="27660" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Screenshot" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>—</t>
   </si>
   <si>
-    <t>Nov 5, 2024</t>
+    <t>Nov 5, 2025</t>
   </si>
   <si>
     <t>GTA1  w/ o3 (100 steps)</t>
@@ -1507,12 +1507,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1840,7 +1839,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1853,7 +1852,7 @@
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1905,14 +1904,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
@@ -1924,14 +1923,14 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>45.2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2008,7 +2007,7 @@
       <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
@@ -2035,7 +2034,7 @@
       <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -2062,7 +2061,7 @@
       <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -2089,7 +2088,7 @@
       <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -2116,7 +2115,7 @@
       <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -2143,7 +2142,7 @@
       <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -2170,7 +2169,7 @@
       <c r="H12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -2197,7 +2196,7 @@
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -2224,7 +2223,7 @@
       <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -2251,7 +2250,7 @@
       <c r="H15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -2278,7 +2277,7 @@
       <c r="H16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -2305,7 +2304,7 @@
       <c r="H17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
@@ -2332,7 +2331,7 @@
       <c r="H18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -2359,7 +2358,7 @@
       <c r="H19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -2386,7 +2385,7 @@
       <c r="H20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -2413,7 +2412,7 @@
       <c r="H21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -2440,7 +2439,7 @@
       <c r="H22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -2467,7 +2466,7 @@
       <c r="H23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -2494,7 +2493,7 @@
       <c r="H24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -2521,7 +2520,7 @@
       <c r="H25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -2548,7 +2547,7 @@
       <c r="H26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
@@ -2575,7 +2574,7 @@
       <c r="H27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -2602,7 +2601,7 @@
       <c r="H28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -2629,7 +2628,7 @@
       <c r="H29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
@@ -2656,7 +2655,7 @@
       <c r="H30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
@@ -2683,7 +2682,7 @@
       <c r="H31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -2710,9 +2709,9 @@
       <c r="H32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -2737,9 +2736,9 @@
       <c r="H33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -2764,9 +2763,9 @@
       <c r="H34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -2791,9 +2790,9 @@
       <c r="H35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -2818,9 +2817,9 @@
       <c r="H36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -2845,7 +2844,7 @@
       <c r="H37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
@@ -2872,9 +2871,9 @@
       <c r="H38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -2899,9 +2898,9 @@
       <c r="H39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2926,9 +2925,9 @@
       <c r="H40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -2953,9 +2952,9 @@
       <c r="H41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -2980,7 +2979,7 @@
       <c r="H42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
@@ -3007,9 +3006,9 @@
       <c r="H43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -3034,7 +3033,7 @@
       <c r="H44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
@@ -3061,9 +3060,9 @@
       <c r="H45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -3088,9 +3087,9 @@
       <c r="H46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -3115,9 +3114,9 @@
       <c r="H47" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -3142,7 +3141,7 @@
       <c r="H48" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
@@ -3169,7 +3168,7 @@
       <c r="H49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -3196,7 +3195,7 @@
       <c r="H50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -3223,7 +3222,7 @@
       <c r="H51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -3250,7 +3249,7 @@
       <c r="H52" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I52" s="7"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -3277,7 +3276,7 @@
       <c r="H53" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I53" s="7"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -3304,9 +3303,9 @@
       <c r="H54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>206</v>
       </c>
